--- a/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
+++ b/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继续</t>
+    <t>继续学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
+++ b/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继续学习</t>
+    <t>继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
+++ b/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日志" sheetId="1" r:id="rId1"/>
+    <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,34 @@
   </si>
   <si>
     <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/16-7/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学完SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -631,4 +660,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
+++ b/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
@@ -700,7 +700,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
+++ b/zutnlp-admin/doc/log/log_201608040101xumengqi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,44 +122,59 @@
     <t>8:00-21:02</t>
   </si>
   <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/16-7/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学完SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-21:03</t>
+  </si>
+  <si>
+    <t>1、学习vuejs语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、springBoot配置传参
-2、vue、npm安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/16-7/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学完SpringBoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
+2、nodejs、npm安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -646,13 +661,30 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42940</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -677,30 +709,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
